--- a/ML/voitures/voitures_clustering.xlsx
+++ b/ML/voitures/voitures_clustering.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24302"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ct_do\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AECE18D-39E2-4C32-88B0-E33001E3EA32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C7CCEA6-17A4-48A6-B83D-92C2A57F86A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{303C315A-4939-4136-94FE-CE5EEE574D7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Voitures" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="191">
   <si>
     <t>Modele</t>
   </si>
@@ -62,6 +63,12 @@
     <t>C02</t>
   </si>
   <si>
+    <t>PANDA</t>
+  </si>
+  <si>
+    <t>TWINGO</t>
+  </si>
+  <si>
     <t>YARIS</t>
   </si>
   <si>
@@ -468,87 +475,6 @@
   </si>
   <si>
     <t>235</t>
-  </si>
-  <si>
-    <t>P607</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>2721</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>491</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>1723</t>
-  </si>
-  <si>
-    <t>MERC_E</t>
-  </si>
-  <si>
-    <t>3222</t>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>482</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>1735</t>
-  </si>
-  <si>
-    <t>ALFA 156</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>3179</t>
-  </si>
-  <si>
-    <t>443</t>
-  </si>
-  <si>
-    <t>1410</t>
-  </si>
-  <si>
-    <t>287</t>
-  </si>
-  <si>
-    <t>BMW530</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>2979</t>
-  </si>
-  <si>
-    <t>485</t>
-  </si>
-  <si>
-    <t>1495</t>
-  </si>
-  <si>
-    <t>TWINGO</t>
-  </si>
-  <si>
-    <t>PANDA</t>
-  </si>
-  <si>
-    <t>MAZDARX8</t>
   </si>
   <si>
     <t>MONDEO</t>
@@ -586,7 +512,10 @@
 </t>
   </si>
   <si>
-    <t>CITRONC5</t>
+    <t>MAZDARX8</t>
+  </si>
+  <si>
+    <t>VELSATIS</t>
   </si>
   <si>
     <t xml:space="preserve">2188
@@ -617,14 +546,89 @@
 </t>
   </si>
   <si>
-    <t>VELSATIS</t>
+    <t>CITRONC5</t>
+  </si>
+  <si>
+    <t>P607</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>2721</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>491</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>1723</t>
+  </si>
+  <si>
+    <t>MERC_E</t>
+  </si>
+  <si>
+    <t>3222</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>482</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>1735</t>
+  </si>
+  <si>
+    <t>ALFA 156</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>3179</t>
+  </si>
+  <si>
+    <t>443</t>
+  </si>
+  <si>
+    <t>1410</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>BMW530</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>2979</t>
+  </si>
+  <si>
+    <t>485</t>
+  </si>
+  <si>
+    <t>1495</t>
+  </si>
+  <si>
+    <t>BERLINGO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -683,7 +687,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -979,18 +983,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71582483-2F5C-4B86-8C0E-4F4C0087CB35}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I31"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1019,9 +1023,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>170</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1">
         <v>54</v>
@@ -1048,9 +1052,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>60</v>
@@ -1077,618 +1081,618 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="1" t="s">
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="H18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="H20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="H22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="I23" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="2" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B25" s="1">
         <v>231</v>
@@ -1715,38 +1719,38 @@
         <v>284</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="2" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="B26" s="2">
         <v>150</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B27" s="1">
         <v>210</v>
@@ -1773,120 +1777,149 @@
         <v>238</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H31" s="1" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>165</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>190</v>
+      </c>
+      <c r="B32">
+        <v>75</v>
+      </c>
+      <c r="C32">
+        <v>1500</v>
+      </c>
+      <c r="D32">
+        <v>186</v>
+      </c>
+      <c r="E32">
+        <v>450</v>
+      </c>
+      <c r="F32">
+        <v>185</v>
+      </c>
+      <c r="G32">
+        <v>185</v>
+      </c>
+      <c r="H32">
+        <v>1500</v>
+      </c>
+      <c r="I32">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/ML/voitures/voitures_clustering.xlsx
+++ b/ML/voitures/voitures_clustering.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ct_do\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C7CCEA6-17A4-48A6-B83D-92C2A57F86A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3075FAAA-80AC-4F65-9A66-93928F63F130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{303C315A-4939-4136-94FE-CE5EEE574D7B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="190">
   <si>
     <t>Modele</t>
   </si>
@@ -619,9 +619,6 @@
   </si>
   <si>
     <t>1495</t>
-  </si>
-  <si>
-    <t>BERLINGO</t>
   </si>
 </sst>
 </file>
@@ -983,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71582483-2F5C-4B86-8C0E-4F4C0087CB35}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1893,35 +1890,6 @@
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="s">
-        <v>190</v>
-      </c>
-      <c r="B32">
-        <v>75</v>
-      </c>
-      <c r="C32">
-        <v>1500</v>
-      </c>
-      <c r="D32">
-        <v>186</v>
-      </c>
-      <c r="E32">
-        <v>450</v>
-      </c>
-      <c r="F32">
-        <v>185</v>
-      </c>
-      <c r="G32">
-        <v>185</v>
-      </c>
-      <c r="H32">
-        <v>1500</v>
-      </c>
-      <c r="I32">
-        <v>120</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
